--- a/ShortestPath/Experiment_DDR_Data_Generation.xlsx
+++ b/ShortestPath/Experiment_DDR_Data_Generation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxun/Dropbox/Research/Decision_Driven_Regularization/Code_MacBook/Decision_Driven_Regularization/ShortestPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D269163B-BBFE-5745-BB02-3E9504F8E770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E5BD27-4327-CE45-8F39-50E8CAE02215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31860" yWindow="4860" windowWidth="22740" windowHeight="13720" xr2:uid="{63D466F4-C380-9B4B-A226-11AE866A1CA6}"/>
+    <workbookView xWindow="22940" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{63D466F4-C380-9B4B-A226-11AE866A1CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>training data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR 没有明显优势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +451,7 @@
   <dimension ref="B2:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -500,15 +504,27 @@
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:8" ht="31">
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
   </sheetData>

--- a/ShortestPath/Experiment_DDR_Data_Generation.xlsx
+++ b/ShortestPath/Experiment_DDR_Data_Generation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxun/Dropbox/Research/Decision_Driven_Regularization/Code_MacBook/Decision_Driven_Regularization/ShortestPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E5BD27-4327-CE45-8F39-50E8CAE02215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEC05E3-83F3-C645-B9AE-2A24E1373A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{63D466F4-C380-9B4B-A226-11AE866A1CA6}"/>
+    <workbookView xWindow="22940" yWindow="500" windowWidth="38400" windowHeight="19360" xr2:uid="{63D466F4-C380-9B4B-A226-11AE866A1CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>training data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,19 +60,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.1,1.10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[-1,-0.9,…,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DDR 没有明显优势</t>
+    <t>SPO Data Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.75,0.875,1.0,1.125,1.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.025,0.05,…1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +109,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,12 +144,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FB031-1004-7F4C-98ED-1BFBEEC927BC}">
-  <dimension ref="B2:H4"/>
+  <dimension ref="B1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -459,11 +479,21 @@
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.1640625" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" ht="31">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
     <row r="2" spans="2:8" ht="31">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -482,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="31">
@@ -499,13 +529,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="31">
@@ -514,21 +544,743 @@
         <v>100</v>
       </c>
       <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="31">
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="31">
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
         <v>1.2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="31">
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="31">
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="31">
+      <c r="C9" s="1">
+        <v>500</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="31">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" ht="31">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" ht="31">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" ht="31">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" ht="31">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" ht="31">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" ht="31">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="3:7" ht="31">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="3:7" ht="31">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="3:7" ht="31">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="3:7" ht="31">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="3:7" ht="31">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="3:7" ht="31">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="3:7" ht="31">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="3:7" ht="31">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="3:7" ht="31">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="3:7" ht="31">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="3:7" ht="31">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="3:7" ht="31">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="3:7" ht="31">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="3:7" ht="31">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="3:7" ht="31">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="3:7" ht="31">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="3:7" ht="31">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="3:7" ht="31">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="3:7" ht="31">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="3:7" ht="31">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="3:7" ht="31">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="3:7" ht="31">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="3:7" ht="31">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="3:7" ht="31">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="3:7" ht="31">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="3:7" ht="31">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="3:7" ht="31">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="3:7" ht="31">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="3:7" ht="31">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="3:7" ht="31">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="3:7" ht="31">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="3:7" ht="31">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="3:7" ht="31">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="3:7" ht="31">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="3:7" ht="31">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="3:7" ht="31">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="3:7" ht="31">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="3:7" ht="31">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="3:7" ht="31">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="3:7" ht="31">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="3:7" ht="31">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="3:7" ht="31">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="3:7" ht="31">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="3:7" ht="31">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="3:7" ht="31">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="3:7" ht="31">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="3:7" ht="31">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="3:7" ht="31">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="3:7" ht="31">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="3:7" ht="31">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="3:7" ht="31">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="3:7" ht="31">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="3:7" ht="31">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="3:7" ht="31">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="3:7" ht="31">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="3:7" ht="31">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="3:7" ht="31">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="3:7" ht="31">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="3:7" ht="31">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="3:7" ht="31">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="3:7" ht="31">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="3:7" ht="31">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="3:7" ht="31">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="3:7" ht="31">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="3:7" ht="31">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="3:7" ht="31">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="3:7" ht="31">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="3:7" ht="31">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="3:7" ht="31">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="3:7" ht="31">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="3:7" ht="31">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="3:7" ht="31">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="3:7" ht="31">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="3:7" ht="31">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="3:7" ht="31">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="3:7" ht="31">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="3:7" ht="31">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="3:7" ht="31">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="3:7" ht="31">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="3:7" ht="31">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="3:7" ht="31">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ShortestPath/Experiment_DDR_Data_Generation.xlsx
+++ b/ShortestPath/Experiment_DDR_Data_Generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxun/Dropbox/Research/Decision_Driven_Regularization/Code_MacBook/Decision_Driven_Regularization/ShortestPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEC05E3-83F3-C645-B9AE-2A24E1373A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05A290-2943-544F-B1EC-F2436C82AC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22940" yWindow="500" windowWidth="38400" windowHeight="19360" xr2:uid="{63D466F4-C380-9B4B-A226-11AE866A1CA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>training data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,27 +60,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Result</t>
+    <t>grid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPO Data Generation</t>
+    <t>DDR Data Generation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.75,0.875,1.0,1.125,1.5]</t>
+    <t>(5,5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.025,0.05,…1]</t>
+    <t>device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不行</t>
+    <t>Macbook</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1]</t>
+    <t>MacMini</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FB031-1004-7F4C-98ED-1BFBEEC927BC}">
-  <dimension ref="B1:H97"/>
+  <dimension ref="B1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -482,9 +482,10 @@
     <col min="6" max="6" width="61.6640625" customWidth="1"/>
     <col min="7" max="7" width="33.1640625" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="31">
+    <row r="1" spans="2:9" ht="31">
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
@@ -494,7 +495,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="31">
+    <row r="2" spans="2:9" ht="31">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -514,8 +515,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="31">
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="31">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -528,180 +532,123 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="31">
+    <row r="4" spans="2:9" ht="31">
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>100</v>
       </c>
       <c r="D4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31">
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="31">
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="31">
-      <c r="C7" s="1">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="31">
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="31">
-      <c r="C9" s="1">
-        <v>500</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="31">
+    </row>
+    <row r="5" spans="2:9" ht="31">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="31">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="31">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="31">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" ht="31">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" ht="31">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="31">
+    <row r="11" spans="2:9" ht="31">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:8" ht="31">
+    <row r="12" spans="2:9" ht="31">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:8" ht="31">
+    <row r="13" spans="2:9" ht="31">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:8" ht="31">
+    <row r="14" spans="2:9" ht="31">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:8" ht="31">
+    <row r="15" spans="2:9" ht="31">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:8" ht="31">
+    <row r="16" spans="2:9" ht="31">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
